--- a/tabtoy/table/Index.xlsx
+++ b/tabtoy/table/Index.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\project\TabtoyDemo\table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\project\QuickStart\tabtoy\table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4B21913-633D-401D-9E2B-57B6AF11C3E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6484E649-F06E-4619-80F2-FCBAA0252BE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
   <si>
     <t>模式</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -43,19 +43,31 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>数据表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MyData</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MyData.xlsx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>Type.xlsx</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>数据表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MyData</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MyData.xlsx</t>
+    <t>ActivityType.xlsx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ActivityConfig</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ActivityConfig.xlsx</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -381,15 +393,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="11.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
@@ -408,18 +421,37 @@
         <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
         <v>5</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>6</v>
       </c>
-      <c r="C3" t="s">
-        <v>7</v>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/tabtoy/table/Index.xlsx
+++ b/tabtoy/table/Index.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\project\QuickStart\tabtoy\table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6484E649-F06E-4619-80F2-FCBAA0252BE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA2ED3BC-E629-4532-8AF5-4627E783BDCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
   <si>
     <t>模式</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -68,6 +68,18 @@
   </si>
   <si>
     <t>ActivityConfig.xlsx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>键值表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BaseConfig</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BaseConfig.xlsx</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -111,8 +123,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -393,7 +408,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G6" sqref="G6"/>
@@ -405,7 +420,7 @@
     <col min="3" max="3" width="15.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -416,7 +431,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -424,7 +439,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -435,7 +450,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -443,7 +458,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -453,6 +468,18 @@
       <c r="C5" t="s">
         <v>10</v>
       </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
